--- a/Bithumb_Input.xlsx
+++ b/Bithumb_Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m01\Desktop\Researchan\Crypto_InfoSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5B6249-EEF1-4C47-A94B-6FF4D8BABD35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BAB5D8-9CA1-43FA-A3A3-8C96A7991E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-9045" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="606">
   <si>
     <t>CMC_id</t>
   </si>
@@ -1885,7 +1885,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1901,8 +1901,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1910,7 +1910,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1925,33 +1924,9 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -1961,7 +1936,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1969,23 +1944,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2289,13 +2255,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H247"/>
+  <dimension ref="A1:E247"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="19.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="29.125" style="2" customWidth="1"/>
@@ -2304,7 +2270,7 @@
     <col min="5" max="5" width="16.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>301</v>
       </c>
@@ -2317,11 +2283,11 @@
       <c r="D1" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>412</v>
       </c>
@@ -2337,11 +2303,8 @@
       <c r="E2" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>84</v>
       </c>
@@ -2357,11 +2320,8 @@
       <c r="E3" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>81</v>
       </c>
@@ -2377,11 +2337,8 @@
       <c r="E4" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>201</v>
       </c>
@@ -2397,11 +2354,8 @@
       <c r="E5" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>40</v>
       </c>
@@ -2417,11 +2371,8 @@
       <c r="E6" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H6" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>145</v>
       </c>
@@ -2437,11 +2388,8 @@
       <c r="E7" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H7" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>219</v>
       </c>
@@ -2457,11 +2405,8 @@
       <c r="E8" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H8" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>78</v>
       </c>
@@ -2477,11 +2422,8 @@
       <c r="E9" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>95</v>
       </c>
@@ -2497,11 +2439,8 @@
       <c r="E10" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>183</v>
       </c>
@@ -2517,18 +2456,15 @@
       <c r="E11" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H11" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>224</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>2299</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -2537,11 +2473,8 @@
       <c r="E12" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H12" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>107</v>
       </c>
@@ -2557,11 +2490,8 @@
       <c r="E13" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H13" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>227</v>
       </c>
@@ -2577,11 +2507,8 @@
       <c r="E14" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H14" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
         <v>207</v>
       </c>
@@ -2597,11 +2524,8 @@
       <c r="E15" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H15" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>413</v>
       </c>
@@ -2617,11 +2541,8 @@
       <c r="E16" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H16" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
         <v>243</v>
       </c>
@@ -2637,11 +2558,8 @@
       <c r="E17" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H17" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
         <v>119</v>
       </c>
@@ -2657,11 +2575,8 @@
       <c r="E18" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
         <v>251</v>
       </c>
@@ -2677,11 +2592,8 @@
       <c r="E19" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H19" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
         <v>253</v>
       </c>
@@ -2697,11 +2609,8 @@
       <c r="E20" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H20" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>210</v>
       </c>
@@ -2717,11 +2626,8 @@
       <c r="E21" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H21" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
         <v>249</v>
       </c>
@@ -2737,11 +2643,8 @@
       <c r="E22" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H22" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
         <v>7</v>
       </c>
@@ -2757,11 +2660,8 @@
       <c r="E23" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H23" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
         <v>330</v>
       </c>
@@ -2777,11 +2677,8 @@
       <c r="E24" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H24" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
         <v>37</v>
       </c>
@@ -2797,11 +2694,8 @@
       <c r="E25" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H25" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>180</v>
       </c>
@@ -2817,11 +2711,8 @@
       <c r="E26" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H26" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="3" t="s">
         <v>230</v>
       </c>
@@ -2837,11 +2728,8 @@
       <c r="E27" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H27" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="3" t="s">
         <v>192</v>
       </c>
@@ -2857,11 +2745,8 @@
       <c r="E28" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H28" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="3" t="s">
         <v>113</v>
       </c>
@@ -2877,11 +2762,8 @@
       <c r="E29" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H29" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="3" t="s">
         <v>72</v>
       </c>
@@ -2897,11 +2779,8 @@
       <c r="E30" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H30" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="3" t="s">
         <v>189</v>
       </c>
@@ -2917,11 +2796,8 @@
       <c r="E31" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H31" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="3" t="s">
         <v>134</v>
       </c>
@@ -2937,11 +2813,8 @@
       <c r="E32" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H32" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="3" t="s">
         <v>104</v>
       </c>
@@ -2957,11 +2830,8 @@
       <c r="E33" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H33" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="3" t="s">
         <v>245</v>
       </c>
@@ -2977,12 +2847,9 @@
       <c r="E34" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H34" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="4" t="s">
         <v>411</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -2997,11 +2864,8 @@
       <c r="E35" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H35" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="3" t="s">
         <v>218</v>
       </c>
@@ -3017,11 +2881,8 @@
       <c r="E36" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H36" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="3" t="s">
         <v>240</v>
       </c>
@@ -3037,11 +2898,8 @@
       <c r="E37" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H37" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="3" t="s">
         <v>255</v>
       </c>
@@ -3057,11 +2915,8 @@
       <c r="E38" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H38" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="3" t="s">
         <v>383</v>
       </c>
@@ -3077,11 +2932,8 @@
       <c r="E39" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H39" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="3" t="s">
         <v>303</v>
       </c>
@@ -3097,11 +2949,8 @@
       <c r="E40" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H40" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="3" t="s">
         <v>13</v>
       </c>
@@ -3117,15 +2966,12 @@
       <c r="E41" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H41" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="4" t="s">
         <v>531</v>
       </c>
       <c r="C42" s="4">
@@ -3137,11 +2983,8 @@
       <c r="E42" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H42" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="3" t="s">
         <v>221</v>
       </c>
@@ -3157,11 +3000,8 @@
       <c r="E43" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H43" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="3" t="s">
         <v>226</v>
       </c>
@@ -3177,11 +3017,8 @@
       <c r="E44" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H44" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="3" t="s">
         <v>48</v>
       </c>
@@ -3197,11 +3034,8 @@
       <c r="E45" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H45" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="3" t="s">
         <v>231</v>
       </c>
@@ -3217,11 +3051,8 @@
       <c r="E46" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H46" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="3" t="s">
         <v>318</v>
       </c>
@@ -3237,11 +3068,8 @@
       <c r="E47" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H47" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="3" t="s">
         <v>225</v>
       </c>
@@ -3257,11 +3085,8 @@
       <c r="E48" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H48" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="3" t="s">
         <v>345</v>
       </c>
@@ -3277,15 +3102,12 @@
       <c r="E49" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H49" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="4" t="s">
         <v>533</v>
       </c>
       <c r="C50" s="4">
@@ -3297,12 +3119,9 @@
       <c r="E50" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H50" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="7" t="s">
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="4" t="s">
         <v>386</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -3317,12 +3136,9 @@
       <c r="E51" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H51" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="7" t="s">
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="4" t="s">
         <v>494</v>
       </c>
       <c r="B52" s="4" t="s">
@@ -3337,11 +3153,8 @@
       <c r="E52" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="H52" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="3" t="s">
         <v>174</v>
       </c>
@@ -3357,11 +3170,8 @@
       <c r="E53" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H53" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="3" t="s">
         <v>337</v>
       </c>
@@ -3377,11 +3187,8 @@
       <c r="E54" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H54" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="3" t="s">
         <v>334</v>
       </c>
@@ -3397,11 +3204,8 @@
       <c r="E55" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H55" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="3" t="s">
         <v>228</v>
       </c>
@@ -3417,15 +3221,12 @@
       <c r="E56" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H56" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="4" t="s">
         <v>534</v>
       </c>
       <c r="C57" s="4">
@@ -3437,11 +3238,8 @@
       <c r="E57" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H57" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="3" t="s">
         <v>368</v>
       </c>
@@ -3457,11 +3255,8 @@
       <c r="E58" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H58" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="3" t="s">
         <v>349</v>
       </c>
@@ -3477,15 +3272,12 @@
       <c r="E59" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H59" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="4" t="s">
         <v>535</v>
       </c>
       <c r="C60" s="4">
@@ -3497,11 +3289,8 @@
       <c r="E60" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H60" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="3" t="s">
         <v>217</v>
       </c>
@@ -3517,11 +3306,8 @@
       <c r="E61" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H61" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="3" t="s">
         <v>25</v>
       </c>
@@ -3537,11 +3323,8 @@
       <c r="E62" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H62" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="3" t="s">
         <v>222</v>
       </c>
@@ -3557,11 +3340,8 @@
       <c r="E63" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H63" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="3" t="s">
         <v>312</v>
       </c>
@@ -3577,11 +3357,8 @@
       <c r="E64" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H64" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="3" t="s">
         <v>319</v>
       </c>
@@ -3597,11 +3374,8 @@
       <c r="E65" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H65" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="3" t="s">
         <v>213</v>
       </c>
@@ -3617,12 +3391,9 @@
       <c r="E66" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H66" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="7" t="s">
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="4" t="s">
         <v>391</v>
       </c>
       <c r="B67" s="4" t="s">
@@ -3637,11 +3408,8 @@
       <c r="E67" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H67" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="3" t="s">
         <v>246</v>
       </c>
@@ -3657,11 +3425,8 @@
       <c r="E68" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H68" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="3" t="s">
         <v>186</v>
       </c>
@@ -3677,11 +3442,8 @@
       <c r="E69" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H69" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="3" t="s">
         <v>321</v>
       </c>
@@ -3697,11 +3459,8 @@
       <c r="E70" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H70" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="3" t="s">
         <v>322</v>
       </c>
@@ -3717,11 +3476,8 @@
       <c r="E71" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H71" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="3" t="s">
         <v>4</v>
       </c>
@@ -3737,11 +3493,8 @@
       <c r="E72" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H72" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="3" t="s">
         <v>54</v>
       </c>
@@ -3757,11 +3510,8 @@
       <c r="E73" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H73" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="3" t="s">
         <v>323</v>
       </c>
@@ -3777,11 +3527,8 @@
       <c r="E74" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H74" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="3" t="s">
         <v>324</v>
       </c>
@@ -3797,11 +3544,8 @@
       <c r="E75" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H75" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" s="3" t="s">
         <v>153</v>
       </c>
@@ -3817,11 +3561,8 @@
       <c r="E76" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H76" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" s="3" t="s">
         <v>235</v>
       </c>
@@ -3837,11 +3578,8 @@
       <c r="E77" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H77" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" s="3" t="s">
         <v>148</v>
       </c>
@@ -3857,11 +3595,8 @@
       <c r="E78" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H78" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" s="3" t="s">
         <v>375</v>
       </c>
@@ -3877,11 +3612,8 @@
       <c r="E79" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H79" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" s="3" t="s">
         <v>156</v>
       </c>
@@ -3897,11 +3629,8 @@
       <c r="E80" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H80" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" s="3" t="s">
         <v>252</v>
       </c>
@@ -3917,11 +3646,8 @@
       <c r="E81" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H81" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" s="3" t="s">
         <v>302</v>
       </c>
@@ -3937,11 +3663,8 @@
       <c r="E82" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H82" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" s="3" t="s">
         <v>327</v>
       </c>
@@ -3957,11 +3680,8 @@
       <c r="E83" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H83" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" s="3" t="s">
         <v>236</v>
       </c>
@@ -3977,11 +3697,8 @@
       <c r="E84" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H84" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" s="3" t="s">
         <v>352</v>
       </c>
@@ -3997,15 +3714,12 @@
       <c r="E85" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H85" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="4" t="s">
         <v>536</v>
       </c>
       <c r="C86" s="4">
@@ -4017,12 +3731,9 @@
       <c r="E86" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H86" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="7" t="s">
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="4" t="s">
         <v>496</v>
       </c>
       <c r="B87" s="4" t="s">
@@ -4037,11 +3748,8 @@
       <c r="E87" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="H87" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" s="3" t="s">
         <v>331</v>
       </c>
@@ -4057,11 +3765,8 @@
       <c r="E88" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H88" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" s="3" t="s">
         <v>371</v>
       </c>
@@ -4077,11 +3782,8 @@
       <c r="E89" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H89" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" s="3" t="s">
         <v>317</v>
       </c>
@@ -4097,11 +3799,8 @@
       <c r="E90" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H90" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" s="3" t="s">
         <v>313</v>
       </c>
@@ -4117,12 +3816,9 @@
       <c r="E91" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H91" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="7" t="s">
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="4" t="s">
         <v>399</v>
       </c>
       <c r="B92" s="4" t="s">
@@ -4137,12 +3833,9 @@
       <c r="E92" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H92" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="7" t="s">
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="4" t="s">
         <v>401</v>
       </c>
       <c r="B93" s="4" t="s">
@@ -4157,11 +3850,8 @@
       <c r="E93" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H93" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" s="3" t="s">
         <v>92</v>
       </c>
@@ -4178,11 +3868,11 @@
         <v>490</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5">
       <c r="A95" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="4" t="s">
         <v>537</v>
       </c>
       <c r="C95" s="4">
@@ -4195,7 +3885,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5">
       <c r="A96" s="3" t="s">
         <v>162</v>
       </c>
@@ -4212,7 +3902,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5">
       <c r="A97" s="3" t="s">
         <v>377</v>
       </c>
@@ -4229,11 +3919,11 @@
         <v>490</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5">
       <c r="A98" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="4" t="s">
         <v>538</v>
       </c>
       <c r="C98" s="4">
@@ -4246,7 +3936,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5">
       <c r="A99" s="3" t="s">
         <v>241</v>
       </c>
@@ -4263,7 +3953,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5">
       <c r="A100" s="3" t="s">
         <v>110</v>
       </c>
@@ -4280,8 +3970,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="7" t="s">
+    <row r="101" spans="1:5">
+      <c r="A101" s="4" t="s">
         <v>389</v>
       </c>
       <c r="B101" s="4" t="s">
@@ -4297,7 +3987,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5">
       <c r="A102" s="3" t="s">
         <v>214</v>
       </c>
@@ -4314,7 +4004,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5">
       <c r="A103" s="3" t="s">
         <v>242</v>
       </c>
@@ -4331,8 +4021,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="7" t="s">
+    <row r="104" spans="1:5">
+      <c r="A104" s="4" t="s">
         <v>387</v>
       </c>
       <c r="B104" s="4" t="s">
@@ -4348,7 +4038,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5">
       <c r="A105" s="3" t="s">
         <v>60</v>
       </c>
@@ -4365,7 +4055,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5">
       <c r="A106" s="3" t="s">
         <v>122</v>
       </c>
@@ -4382,7 +4072,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5">
       <c r="A107" s="3" t="s">
         <v>116</v>
       </c>
@@ -4399,7 +4089,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5">
       <c r="A108" s="3" t="s">
         <v>131</v>
       </c>
@@ -4416,7 +4106,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5">
       <c r="A109" s="3" t="s">
         <v>342</v>
       </c>
@@ -4433,8 +4123,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="7" t="s">
+    <row r="110" spans="1:5">
+      <c r="A110" s="4" t="s">
         <v>394</v>
       </c>
       <c r="B110" s="4" t="s">
@@ -4450,7 +4140,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5">
       <c r="A111" s="3" t="s">
         <v>244</v>
       </c>
@@ -4467,7 +4157,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5">
       <c r="A112" s="3" t="s">
         <v>344</v>
       </c>
@@ -4484,7 +4174,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5">
       <c r="A113" s="3" t="s">
         <v>365</v>
       </c>
@@ -4501,7 +4191,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5">
       <c r="A114" s="3" t="s">
         <v>346</v>
       </c>
@@ -4518,7 +4208,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5">
       <c r="A115" s="3" t="s">
         <v>248</v>
       </c>
@@ -4535,7 +4225,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5">
       <c r="A116" s="3" t="s">
         <v>237</v>
       </c>
@@ -4552,7 +4242,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5">
       <c r="A117" s="3" t="s">
         <v>215</v>
       </c>
@@ -4569,7 +4259,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5">
       <c r="A118" s="3" t="s">
         <v>347</v>
       </c>
@@ -4586,7 +4276,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5">
       <c r="A119" s="3" t="s">
         <v>139</v>
       </c>
@@ -4603,7 +4293,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5">
       <c r="A120" s="3" t="s">
         <v>348</v>
       </c>
@@ -4620,7 +4310,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5">
       <c r="A121" s="3" t="s">
         <v>332</v>
       </c>
@@ -4637,7 +4327,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5">
       <c r="A122" s="3" t="s">
         <v>216</v>
       </c>
@@ -4654,7 +4344,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5">
       <c r="A123" s="3" t="s">
         <v>350</v>
       </c>
@@ -4671,7 +4361,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5">
       <c r="A124" s="3" t="s">
         <v>326</v>
       </c>
@@ -4688,7 +4378,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5">
       <c r="A125" s="3" t="s">
         <v>51</v>
       </c>
@@ -4705,7 +4395,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5">
       <c r="A126" s="3" t="s">
         <v>34</v>
       </c>
@@ -4722,8 +4412,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" s="7" t="s">
+    <row r="127" spans="1:5">
+      <c r="A127" s="4" t="s">
         <v>500</v>
       </c>
       <c r="B127" s="4" t="s">
@@ -4739,7 +4429,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5">
       <c r="A128" s="3" t="s">
         <v>339</v>
       </c>
@@ -4756,7 +4446,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5">
       <c r="A129" s="3" t="s">
         <v>223</v>
       </c>
@@ -4773,7 +4463,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5">
       <c r="A130" s="3" t="s">
         <v>159</v>
       </c>
@@ -4790,7 +4480,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5">
       <c r="A131" s="3" t="s">
         <v>128</v>
       </c>
@@ -4807,7 +4497,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5">
       <c r="A132" s="3" t="s">
         <v>354</v>
       </c>
@@ -4824,7 +4514,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5">
       <c r="A133" s="3" t="s">
         <v>355</v>
       </c>
@@ -4841,8 +4531,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" s="7" t="s">
+    <row r="134" spans="1:5">
+      <c r="A134" s="4" t="s">
         <v>396</v>
       </c>
       <c r="B134" s="4" t="s">
@@ -4858,7 +4548,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5">
       <c r="A135" s="3" t="s">
         <v>198</v>
       </c>
@@ -4875,7 +4565,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5">
       <c r="A136" s="3" t="s">
         <v>142</v>
       </c>
@@ -4892,7 +4582,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5">
       <c r="A137" s="3" t="s">
         <v>233</v>
       </c>
@@ -4909,7 +4599,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5">
       <c r="A138" s="3" t="s">
         <v>357</v>
       </c>
@@ -4926,7 +4616,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5">
       <c r="A139" s="3" t="s">
         <v>238</v>
       </c>
@@ -4943,7 +4633,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5">
       <c r="A140" s="3" t="s">
         <v>10</v>
       </c>
@@ -4960,7 +4650,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5">
       <c r="A141" s="3" t="s">
         <v>229</v>
       </c>
@@ -4977,7 +4667,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5">
       <c r="A142" s="3" t="s">
         <v>204</v>
       </c>
@@ -4994,7 +4684,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5">
       <c r="A143" s="3" t="s">
         <v>234</v>
       </c>
@@ -5011,7 +4701,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5">
       <c r="A144" s="3" t="s">
         <v>66</v>
       </c>
@@ -5028,7 +4718,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5">
       <c r="A145" s="3" t="s">
         <v>28</v>
       </c>
@@ -5045,7 +4735,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5">
       <c r="A146" s="3" t="s">
         <v>250</v>
       </c>
@@ -5062,8 +4752,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147" s="7" t="s">
+    <row r="147" spans="1:5">
+      <c r="A147" s="4" t="s">
         <v>385</v>
       </c>
       <c r="B147" s="4" t="s">
@@ -5079,7 +4769,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5">
       <c r="A148" s="3" t="s">
         <v>63</v>
       </c>
@@ -5096,7 +4786,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5">
       <c r="A149" s="3" t="s">
         <v>359</v>
       </c>
@@ -5113,7 +4803,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5">
       <c r="A150" s="3" t="s">
         <v>360</v>
       </c>
@@ -5130,8 +4820,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" s="7" t="s">
+    <row r="151" spans="1:5">
+      <c r="A151" s="4" t="s">
         <v>504</v>
       </c>
       <c r="B151" s="4" t="s">
@@ -5147,7 +4837,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5">
       <c r="A152" s="3" t="s">
         <v>362</v>
       </c>
@@ -5164,8 +4854,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153" s="7" t="s">
+    <row r="153" spans="1:5">
+      <c r="A153" s="4" t="s">
         <v>491</v>
       </c>
       <c r="B153" s="4" t="s">
@@ -5181,7 +4871,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5">
       <c r="A154" s="3" t="s">
         <v>254</v>
       </c>
@@ -5198,7 +4888,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5">
       <c r="A155" s="3" t="s">
         <v>195</v>
       </c>
@@ -5215,7 +4905,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5">
       <c r="A156" s="3" t="s">
         <v>364</v>
       </c>
@@ -5232,7 +4922,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5">
       <c r="A157" s="3" t="s">
         <v>165</v>
       </c>
@@ -5249,8 +4939,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A158" s="7" t="s">
+    <row r="158" spans="1:5">
+      <c r="A158" s="4" t="s">
         <v>501</v>
       </c>
       <c r="B158" s="4" t="s">
@@ -5266,7 +4956,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5">
       <c r="A159" s="3" t="s">
         <v>69</v>
       </c>
@@ -5283,7 +4973,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5">
       <c r="A160" s="3" t="s">
         <v>125</v>
       </c>
@@ -5300,8 +4990,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A161" s="7" t="s">
+    <row r="161" spans="1:5">
+      <c r="A161" s="4" t="s">
         <v>393</v>
       </c>
       <c r="B161" s="4" t="s">
@@ -5317,7 +5007,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5">
       <c r="A162" s="3" t="s">
         <v>367</v>
       </c>
@@ -5334,7 +5024,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5">
       <c r="A163" s="3" t="s">
         <v>232</v>
       </c>
@@ -5351,7 +5041,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5">
       <c r="A164" s="3" t="s">
         <v>1</v>
       </c>
@@ -5368,7 +5058,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5">
       <c r="A165" s="3" t="s">
         <v>57</v>
       </c>
@@ -5385,8 +5075,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" s="7" t="s">
+    <row r="166" spans="1:5">
+      <c r="A166" s="4" t="s">
         <v>395</v>
       </c>
       <c r="B166" s="4" t="s">
@@ -5402,7 +5092,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5">
       <c r="A167" s="3" t="s">
         <v>369</v>
       </c>
@@ -5419,7 +5109,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5">
       <c r="A168" s="3" t="s">
         <v>87</v>
       </c>
@@ -5436,7 +5126,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5">
       <c r="A169" s="3" t="s">
         <v>370</v>
       </c>
@@ -5453,7 +5143,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5">
       <c r="A170" s="3" t="s">
         <v>220</v>
       </c>
@@ -5470,7 +5160,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5">
       <c r="A171" s="3" t="s">
         <v>340</v>
       </c>
@@ -5487,7 +5177,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5">
       <c r="A172" s="3" t="s">
         <v>372</v>
       </c>
@@ -5504,7 +5194,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5">
       <c r="A173" s="3" t="s">
         <v>379</v>
       </c>
@@ -5521,7 +5211,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5">
       <c r="A174" s="3" t="s">
         <v>311</v>
       </c>
@@ -5538,7 +5228,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5">
       <c r="A175" s="3" t="s">
         <v>306</v>
       </c>
@@ -5555,7 +5245,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5">
       <c r="A176" s="3" t="s">
         <v>31</v>
       </c>
@@ -5572,7 +5262,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5">
       <c r="A177" s="3" t="s">
         <v>333</v>
       </c>
@@ -5589,7 +5279,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5">
       <c r="A178" s="3" t="s">
         <v>307</v>
       </c>
@@ -5606,8 +5296,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179" s="7" t="s">
+    <row r="179" spans="1:5">
+      <c r="A179" s="4" t="s">
         <v>409</v>
       </c>
       <c r="B179" s="4" t="s">
@@ -5623,7 +5313,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5">
       <c r="A180" s="3" t="s">
         <v>247</v>
       </c>
@@ -5640,7 +5330,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5">
       <c r="A181" s="3" t="s">
         <v>177</v>
       </c>
@@ -5657,8 +5347,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182" s="7" t="s">
+    <row r="182" spans="1:5">
+      <c r="A182" s="4" t="s">
         <v>495</v>
       </c>
       <c r="B182" s="4" t="s">
@@ -5674,7 +5364,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5">
       <c r="A183" s="3" t="s">
         <v>90</v>
       </c>
@@ -5691,7 +5381,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5">
       <c r="A184" s="3" t="s">
         <v>363</v>
       </c>
@@ -5708,7 +5398,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5">
       <c r="A185" s="3" t="s">
         <v>381</v>
       </c>
@@ -5725,7 +5415,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5">
       <c r="A186" s="3" t="s">
         <v>16</v>
       </c>
@@ -5742,7 +5432,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5">
       <c r="A187" s="3" t="s">
         <v>378</v>
       </c>
@@ -5759,8 +5449,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A188" s="7" t="s">
+    <row r="188" spans="1:5">
+      <c r="A188" s="4" t="s">
         <v>397</v>
       </c>
       <c r="B188" s="4" t="s">
@@ -5776,8 +5466,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189" s="7" t="s">
+    <row r="189" spans="1:5">
+      <c r="A189" s="4" t="s">
         <v>498</v>
       </c>
       <c r="B189" s="4" t="s">
@@ -5793,8 +5483,8 @@
         <v>505</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A190" s="8" t="s">
+    <row r="190" spans="1:5">
+      <c r="A190" s="3" t="s">
         <v>328</v>
       </c>
       <c r="B190" s="4" t="s">
@@ -5810,8 +5500,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A191" s="8" t="s">
+    <row r="191" spans="1:5">
+      <c r="A191" s="3" t="s">
         <v>329</v>
       </c>
       <c r="B191" s="4" t="s">
@@ -5827,8 +5517,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A192" s="2" t="s">
+    <row r="192" spans="1:5">
+      <c r="A192" s="4" t="s">
         <v>502</v>
       </c>
       <c r="B192" s="4" t="s">
@@ -5844,8 +5534,8 @@
         <v>505</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A193" s="2" t="s">
+    <row r="193" spans="1:5">
+      <c r="A193" s="4" t="s">
         <v>388</v>
       </c>
       <c r="B193" s="4" t="s">
@@ -5861,8 +5551,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194" s="2" t="s">
+    <row r="194" spans="1:5">
+      <c r="A194" s="4" t="s">
         <v>499</v>
       </c>
       <c r="B194" s="4" t="s">
@@ -5878,8 +5568,8 @@
         <v>505</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195" s="8" t="s">
+    <row r="195" spans="1:5">
+      <c r="A195" s="3" t="s">
         <v>374</v>
       </c>
       <c r="B195" s="4" t="s">
@@ -5895,8 +5585,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A196" s="2" t="s">
+    <row r="196" spans="1:5">
+      <c r="A196" s="4" t="s">
         <v>497</v>
       </c>
       <c r="B196" s="4" t="s">
@@ -5912,8 +5602,8 @@
         <v>505</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A197" s="2" t="s">
+    <row r="197" spans="1:5">
+      <c r="A197" s="4" t="s">
         <v>404</v>
       </c>
       <c r="B197" s="4" t="s">
@@ -5929,8 +5619,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A198" s="2" t="s">
+    <row r="198" spans="1:5">
+      <c r="A198" s="4" t="s">
         <v>503</v>
       </c>
       <c r="B198" s="4" t="s">
@@ -5946,8 +5636,8 @@
         <v>505</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A199" s="8" t="s">
+    <row r="199" spans="1:5">
+      <c r="A199" s="3" t="s">
         <v>353</v>
       </c>
       <c r="B199" s="4" t="s">
@@ -5963,8 +5653,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A200" s="8" t="s">
+    <row r="200" spans="1:5">
+      <c r="A200" s="3" t="s">
         <v>338</v>
       </c>
       <c r="B200" s="4" t="s">
@@ -5980,8 +5670,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A201" s="2" t="s">
+    <row r="201" spans="1:5">
+      <c r="A201" s="4" t="s">
         <v>390</v>
       </c>
       <c r="B201" s="4" t="s">
@@ -5997,8 +5687,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A202" s="2" t="s">
+    <row r="202" spans="1:5">
+      <c r="A202" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B202" s="4" t="s">
@@ -6014,8 +5704,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A203" s="2" t="s">
+    <row r="203" spans="1:5">
+      <c r="A203" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B203" s="4" t="s">
@@ -6031,8 +5721,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A204" s="8" t="s">
+    <row r="204" spans="1:5">
+      <c r="A204" s="3" t="s">
         <v>351</v>
       </c>
       <c r="B204" s="4" t="s">
@@ -6048,8 +5738,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A205" s="2" t="s">
+    <row r="205" spans="1:5">
+      <c r="A205" s="4" t="s">
         <v>398</v>
       </c>
       <c r="B205" s="4" t="s">
@@ -6065,8 +5755,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A206" s="2" t="s">
+    <row r="206" spans="1:5">
+      <c r="A206" s="4" t="s">
         <v>493</v>
       </c>
       <c r="B206" s="4" t="s">
@@ -6082,8 +5772,8 @@
         <v>505</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A207" s="2" t="s">
+    <row r="207" spans="1:5">
+      <c r="A207" s="4" t="s">
         <v>239</v>
       </c>
       <c r="B207" s="4" t="s">
@@ -6099,8 +5789,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A208" s="2" t="s">
+    <row r="208" spans="1:5">
+      <c r="A208" s="4" t="s">
         <v>400</v>
       </c>
       <c r="B208" s="4" t="s">
@@ -6116,8 +5806,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A209" s="8" t="s">
+    <row r="209" spans="1:5">
+      <c r="A209" s="3" t="s">
         <v>380</v>
       </c>
       <c r="B209" s="4" t="s">
@@ -6133,8 +5823,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A210" s="2" t="s">
+    <row r="210" spans="1:5">
+      <c r="A210" s="4" t="s">
         <v>402</v>
       </c>
       <c r="B210" s="4" t="s">
@@ -6150,8 +5840,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A211" s="2" t="s">
+    <row r="211" spans="1:5">
+      <c r="A211" s="4" t="s">
         <v>168</v>
       </c>
       <c r="B211" s="4" t="s">
@@ -6167,8 +5857,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A212" s="8" t="s">
+    <row r="212" spans="1:5">
+      <c r="A212" s="3" t="s">
         <v>376</v>
       </c>
       <c r="B212" s="4" t="s">
@@ -6184,8 +5874,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A213" s="2" t="s">
+    <row r="213" spans="1:5">
+      <c r="A213" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B213" s="4" t="s">
@@ -6201,8 +5891,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A214" s="2" t="s">
+    <row r="214" spans="1:5">
+      <c r="A214" s="4" t="s">
         <v>101</v>
       </c>
       <c r="B214" s="4" t="s">
@@ -6218,8 +5908,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A215" s="8" t="s">
+    <row r="215" spans="1:5">
+      <c r="A215" s="3" t="s">
         <v>358</v>
       </c>
       <c r="B215" s="4" t="s">
@@ -6235,8 +5925,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A216" s="2" t="s">
+    <row r="216" spans="1:5">
+      <c r="A216" s="4" t="s">
         <v>98</v>
       </c>
       <c r="B216" s="4" t="s">
@@ -6252,8 +5942,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A217" s="2" t="s">
+    <row r="217" spans="1:5">
+      <c r="A217" s="4" t="s">
         <v>405</v>
       </c>
       <c r="B217" s="4" t="s">
@@ -6269,8 +5959,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A218" s="2" t="s">
+    <row r="218" spans="1:5">
+      <c r="A218" s="4" t="s">
         <v>257</v>
       </c>
       <c r="B218" s="4" t="s">
@@ -6286,8 +5976,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A219" s="2" t="s">
+    <row r="219" spans="1:5">
+      <c r="A219" s="4" t="s">
         <v>406</v>
       </c>
       <c r="B219" s="4" t="s">
@@ -6303,8 +5993,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A220" s="2" t="s">
+    <row r="220" spans="1:5">
+      <c r="A220" s="4" t="s">
         <v>407</v>
       </c>
       <c r="B220" s="4" t="s">
@@ -6320,8 +6010,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A221" s="2" t="s">
+    <row r="221" spans="1:5">
+      <c r="A221" s="4" t="s">
         <v>408</v>
       </c>
       <c r="B221" s="4" t="s">
@@ -6337,8 +6027,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A222" s="2" t="s">
+    <row r="222" spans="1:5">
+      <c r="A222" s="4" t="s">
         <v>171</v>
       </c>
       <c r="B222" s="4" t="s">
@@ -6354,8 +6044,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A223" s="8" t="s">
+    <row r="223" spans="1:5">
+      <c r="A223" s="3" t="s">
         <v>373</v>
       </c>
       <c r="B223" s="4" t="s">
@@ -6371,8 +6061,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A224" s="2" t="s">
+    <row r="224" spans="1:5">
+      <c r="A224" s="4" t="s">
         <v>410</v>
       </c>
       <c r="B224" s="4" t="s">
@@ -6388,8 +6078,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A225" s="8" t="s">
+    <row r="225" spans="1:5">
+      <c r="A225" s="3" t="s">
         <v>308</v>
       </c>
       <c r="B225" s="4" t="s">
@@ -6405,8 +6095,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A226" s="2" t="s">
+    <row r="226" spans="1:5">
+      <c r="A226" s="4" t="s">
         <v>418</v>
       </c>
       <c r="B226" s="4" t="s">
@@ -6422,8 +6112,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A227" s="2" t="s">
+    <row r="227" spans="1:5">
+      <c r="A227" s="4" t="s">
         <v>417</v>
       </c>
       <c r="B227" s="4" t="s">
@@ -6439,8 +6129,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A228" s="2" t="s">
+    <row r="228" spans="1:5">
+      <c r="A228" s="4" t="s">
         <v>416</v>
       </c>
       <c r="B228" s="4" t="s">
@@ -6456,8 +6146,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A229" s="2" t="s">
+    <row r="229" spans="1:5">
+      <c r="A229" s="4" t="s">
         <v>415</v>
       </c>
       <c r="B229" s="4" t="s">
@@ -6473,8 +6163,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A230" s="2" t="s">
+    <row r="230" spans="1:5">
+      <c r="A230" s="4" t="s">
         <v>414</v>
       </c>
       <c r="B230" s="4" t="s">
@@ -6490,8 +6180,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A231" s="8" t="s">
+    <row r="231" spans="1:5">
+      <c r="A231" s="3" t="s">
         <v>325</v>
       </c>
       <c r="B231" s="4" t="s">
@@ -6507,8 +6197,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A232" s="2" t="s">
+    <row r="232" spans="1:5">
+      <c r="A232" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B232" s="4" t="s">
@@ -6524,8 +6214,8 @@
         <v>505</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A233" s="8" t="s">
+    <row r="233" spans="1:5">
+      <c r="A233" s="3" t="s">
         <v>304</v>
       </c>
       <c r="B233" s="4" t="s">
@@ -6541,8 +6231,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A234" s="8" t="s">
+    <row r="234" spans="1:5">
+      <c r="A234" s="3" t="s">
         <v>356</v>
       </c>
       <c r="B234" s="4" t="s">
@@ -6558,8 +6248,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A235" s="2" t="s">
+    <row r="235" spans="1:5">
+      <c r="A235" s="4" t="s">
         <v>392</v>
       </c>
       <c r="B235" s="4" t="s">
@@ -6575,8 +6265,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A236" s="8" t="s">
+    <row r="236" spans="1:5">
+      <c r="A236" s="3" t="s">
         <v>315</v>
       </c>
       <c r="B236" s="4" t="s">
@@ -6592,8 +6282,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A237" s="8" t="s">
+    <row r="237" spans="1:5">
+      <c r="A237" s="3" t="s">
         <v>341</v>
       </c>
       <c r="B237" s="4" t="s">
@@ -6609,8 +6299,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A238" s="2" t="s">
+    <row r="238" spans="1:5">
+      <c r="A238" s="4" t="s">
         <v>492</v>
       </c>
       <c r="B238" s="4" t="s">
@@ -6626,8 +6316,8 @@
         <v>505</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A239" s="8" t="s">
+    <row r="239" spans="1:5">
+      <c r="A239" s="3" t="s">
         <v>382</v>
       </c>
       <c r="B239" s="4" t="s">
@@ -6643,8 +6333,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A240" s="8" t="s">
+    <row r="240" spans="1:5">
+      <c r="A240" s="3" t="s">
         <v>309</v>
       </c>
       <c r="B240" s="4" t="s">
@@ -6660,8 +6350,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A241" s="2" t="s">
+    <row r="241" spans="1:5">
+      <c r="A241" s="4" t="s">
         <v>258</v>
       </c>
       <c r="B241" s="4" t="s">
@@ -6677,8 +6367,8 @@
         <v>505</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A242" s="8" t="s">
+    <row r="242" spans="1:5">
+      <c r="A242" s="3" t="s">
         <v>335</v>
       </c>
       <c r="B242" s="4" t="s">
@@ -6694,8 +6384,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A243" s="8" t="s">
+    <row r="243" spans="1:5">
+      <c r="A243" s="3" t="s">
         <v>384</v>
       </c>
       <c r="B243" s="4" t="s">
@@ -6711,8 +6401,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A244" s="2" t="s">
+    <row r="244" spans="1:5">
+      <c r="A244" s="4" t="s">
         <v>403</v>
       </c>
       <c r="B244" s="4" t="s">
@@ -6728,8 +6418,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A245" s="2" t="s">
+    <row r="245" spans="1:5">
+      <c r="A245" s="4" t="s">
         <v>459</v>
       </c>
       <c r="B245" s="4" t="s">
@@ -6745,8 +6435,8 @@
         <v>505</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A246" s="8" t="s">
+    <row r="246" spans="1:5">
+      <c r="A246" s="3" t="s">
         <v>314</v>
       </c>
       <c r="B246" s="4" t="s">
@@ -6762,8 +6452,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A247" s="8" t="s">
+    <row r="247" spans="1:5">
+      <c r="A247" s="3" t="s">
         <v>361</v>
       </c>
       <c r="B247" s="4" t="s">
@@ -6780,7 +6470,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E247" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bithumb_Input.xlsx
+++ b/Bithumb_Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m01\Desktop\Researchan\Crypto_InfoSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BAB5D8-9CA1-43FA-A3A3-8C96A7991E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D4C563-03F4-4F83-AA2C-58821842E2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-9045" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1944,13 +1944,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2257,8 +2257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E247"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I173" sqref="I173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/Bithumb_Input.xlsx
+++ b/Bithumb_Input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m01\Desktop\Researchan\Crypto_InfoSystem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Researchan\Desktop\Crypto_InfoSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D4C563-03F4-4F83-AA2C-58821842E2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E271950D-7D07-40CD-9C81-1A6D698D89D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2257,8 +2257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I173" sqref="I173"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4012,7 +4012,7 @@
         <v>285</v>
       </c>
       <c r="C103" s="4">
-        <v>4242</v>
+        <v>7461</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>260</v>
@@ -4590,7 +4590,7 @@
         <v>276</v>
       </c>
       <c r="C137" s="4">
-        <v>18755</v>
+        <v>3418</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>260</v>

--- a/Bithumb_Input.xlsx
+++ b/Bithumb_Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Researchan\Desktop\Crypto_InfoSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E271950D-7D07-40CD-9C81-1A6D698D89D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE21622E-FC29-4EDC-815D-CA3980044137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="608">
   <si>
     <t>CMC_id</t>
   </si>
@@ -1876,6 +1876,13 @@
   </si>
   <si>
     <t>symbol</t>
+  </si>
+  <si>
+    <t>RSS3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rss3</t>
   </si>
 </sst>
 </file>
@@ -2255,10 +2262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E247"/>
+  <dimension ref="A1:E248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView tabSelected="1" topLeftCell="A236" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E254" sqref="E254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6469,6 +6476,23 @@
         <v>490</v>
       </c>
     </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="C248" s="1">
+        <v>17917</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Bithumb_Input.xlsx
+++ b/Bithumb_Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Researchan\Desktop\Crypto_InfoSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE21622E-FC29-4EDC-815D-CA3980044137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371FFAFB-B983-43DA-AE2E-19229C9D6ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$247</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2264,8 +2264,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E254" sqref="E254"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4345,7 +4346,7 @@
         <v>1727</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>260</v>
+        <v>490</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>490</v>
@@ -6494,6 +6495,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bithumb_Input.xlsx
+++ b/Bithumb_Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Researchan\Desktop\Crypto_InfoSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371FFAFB-B983-43DA-AE2E-19229C9D6ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31034554-0670-49AE-9241-CDDB9A4D40C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="610">
   <si>
     <t>CMC_id</t>
   </si>
@@ -1883,6 +1883,14 @@
   </si>
   <si>
     <t>rss3</t>
+  </si>
+  <si>
+    <t>HFT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hashflow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2262,11 +2270,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E248"/>
+  <dimension ref="A1:E249"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6494,6 +6502,14 @@
         <v>490</v>
       </c>
     </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
